--- a/Worldwide Vaccine Data.xlsx
+++ b/Worldwide Vaccine Data.xlsx
@@ -2306,7 +2306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2385,6 +2385,12 @@
       <name val="Czionka tekstu"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2443,7 +2449,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2505,6 +2511,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -2806,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175:F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7542,10 +7551,10 @@
       <c r="D175" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="23">
         <v>251</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175" s="23">
         <v>24545759</v>
       </c>
       <c r="G175" s="3">
@@ -7906,6 +7915,10 @@
         <v>24</v>
       </c>
       <c r="I188" s="4"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
     </row>
     <row r="191" spans="1:9">
       <c r="H191" s="22"/>
